--- a/level-1/codeforces-phase-1-4/codeforces-phase-1-4.xlsx
+++ b/level-1/codeforces-phase-1-4/codeforces-phase-1-4.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00537E0-7B1B-4F70-AD69-48B08E32587A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A708CC5-FBC1-4A8D-BDC5-00CB6B309D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,186 +46,6 @@
     <t>C++</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/466/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/216/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/340/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/459/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/227/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/279/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/197/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/140/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/625/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/203/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/239/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/402/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/189/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/192/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/304/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/740/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/175/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/260/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/284/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/485/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/493/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/569/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/614/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/374/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/445/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/514/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/593/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/743/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/298/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/332/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/592/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/416/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/437/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/689/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/362/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/538/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/550/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/393/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/394/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/518/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/222/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/327/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/574/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/606/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/254/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/342/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/347/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/350/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/353/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/463/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/489/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/754/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/315/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/358/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/390/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/397/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/399/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/305/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/430/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/180/A</t>
-  </si>
-  <si>
     <t>Accepted solution link</t>
   </si>
   <si>
@@ -250,24 +70,6 @@
     <t>https://codeforces.com/problemset/problem/73/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/55/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/70/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/66/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/62/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/57/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/40/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/907/A</t>
   </si>
   <si>
@@ -280,18 +82,12 @@
     <t>https://codeforces.com/problemset/problem/65/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/79/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/787/A</t>
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/842/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/51/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/117/A</t>
   </si>
   <si>
@@ -301,30 +97,12 @@
     <t>https://codeforces.com/problemset/problem/30/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/234/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/88/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/23/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/8/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/960/A</t>
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/982/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/60/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/36/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/957/A</t>
   </si>
   <si>
@@ -343,18 +121,6 @@
     <t>https://codeforces.com/problemset/problem/21/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/33/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/31/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/27/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/15/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/102/A</t>
   </si>
   <si>
@@ -370,12 +136,6 @@
     <t>https://codeforces.com/problemset/problem/940/A</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/54/A</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/25/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/42/A</t>
   </si>
   <si>
@@ -383,6 +143,246 @@
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/28/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/402/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/466/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/216/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/340/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/459/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/55/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/227/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/740/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/70/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/66/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/62/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/57/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/40/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/279/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/485/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/197/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/140/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/625/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/203/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/239/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/304/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/606/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/353/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/463/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/79/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/51/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/175/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/260/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/284/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/569/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/614/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/390/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/397/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/374/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/234/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/445/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/514/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/593/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/743/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/592/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/88/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/23/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/8/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/192/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/298/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/332/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/437/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/60/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/36/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/416/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/689/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/538/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/362/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/550/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/393/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/394/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/518/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/399/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/222/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/327/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/574/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/254/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/342/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/350/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/489/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/754/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/33/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/31/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/27/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/15/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/189/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/493/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/347/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/54/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/25/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/315/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/358/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/305/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/430/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/180/A</t>
   </si>
 </sst>
 </file>
@@ -623,21 +623,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <fill>
         <patternFill>
@@ -1252,28 +1238,28 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1370,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -1395,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="N5" s="11"/>
     </row>
@@ -1420,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N6" s="11"/>
     </row>
@@ -1445,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -1470,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -1495,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="N9" s="11"/>
     </row>
@@ -1520,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -1545,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="N11" s="11"/>
     </row>
@@ -1570,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N12" s="13"/>
     </row>
@@ -1595,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="N13" s="11"/>
     </row>
@@ -1620,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N14" s="13"/>
     </row>
@@ -1645,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="N15" s="11"/>
     </row>
@@ -1670,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="N16" s="13"/>
     </row>
@@ -1695,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="N17" s="13"/>
     </row>
@@ -1720,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="N18" s="13"/>
     </row>
@@ -1745,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="N19" s="13"/>
     </row>
@@ -1770,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N20" s="13"/>
     </row>
@@ -1795,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="N21" s="11"/>
     </row>
@@ -1820,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="N22" s="11"/>
     </row>
@@ -1845,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N23" s="13"/>
     </row>
@@ -1870,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N24" s="13"/>
     </row>
@@ -1895,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="N25" s="13"/>
     </row>
@@ -1920,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="N26" s="13"/>
     </row>
@@ -1945,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N27" s="11"/>
     </row>
@@ -1970,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="N28" s="13"/>
     </row>
@@ -1995,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="N29" s="13"/>
     </row>
@@ -2020,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="N30" s="11"/>
     </row>
@@ -2045,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N31" s="13"/>
     </row>
@@ -2070,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N32" s="13"/>
     </row>
@@ -2095,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="N33" s="13"/>
     </row>
@@ -2120,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="N34" s="13"/>
     </row>
@@ -2145,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="N35" s="13"/>
     </row>
@@ -2170,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="N36" s="13"/>
     </row>
@@ -2195,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="N37" s="13"/>
     </row>
@@ -2220,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N38" s="13"/>
     </row>
@@ -2245,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="N39" s="13"/>
     </row>
@@ -2270,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N40" s="13"/>
     </row>
@@ -2295,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="N41" s="13"/>
     </row>
@@ -2320,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N42" s="13"/>
     </row>
@@ -2345,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="N43" s="13"/>
     </row>
@@ -2370,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N44" s="13"/>
     </row>
@@ -2395,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="N45" s="13"/>
     </row>
@@ -2420,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="N46" s="11"/>
     </row>
@@ -2445,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="N47" s="13"/>
     </row>
@@ -2470,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="N48" s="13"/>
     </row>
@@ -2495,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="N49" s="13"/>
     </row>
@@ -2520,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N50" s="13"/>
     </row>
@@ -2545,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="N51" s="13"/>
     </row>
@@ -2570,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N52" s="13"/>
     </row>
@@ -2595,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="N53" s="13"/>
     </row>
@@ -2620,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="N54" s="13"/>
     </row>
@@ -2645,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="N55" s="13"/>
     </row>
@@ -2670,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="N56" s="13"/>
     </row>
@@ -2695,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="N57" s="13"/>
     </row>
@@ -2720,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="N58" s="13"/>
     </row>
@@ -2745,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="N59" s="13"/>
     </row>
@@ -2770,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="N60" s="11"/>
     </row>
@@ -2795,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="N61" s="13"/>
     </row>
@@ -2820,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="N62" s="13"/>
     </row>
@@ -2845,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N63" s="13"/>
     </row>
@@ -2870,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N64" s="13"/>
     </row>
@@ -2895,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="N65" s="13"/>
     </row>
@@ -2920,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="N66" s="11"/>
     </row>
@@ -2945,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="N67" s="13"/>
     </row>
@@ -2970,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="N68" s="13"/>
     </row>
@@ -2995,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="N69" s="11"/>
     </row>
@@ -3020,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="N70" s="13"/>
     </row>
@@ -3045,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="N71" s="13"/>
     </row>
@@ -3066,11 +3052,11 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="8">
-        <f t="shared" ref="L72:L112" si="2">SUM(G72:K72)</f>
+        <f t="shared" ref="L72:L109" si="2">SUM(G72:K72)</f>
         <v>0</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="N72" s="13"/>
     </row>
@@ -3095,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N73" s="11"/>
     </row>
@@ -3120,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N74" s="11"/>
     </row>
@@ -3145,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="N75" s="13"/>
     </row>
@@ -3170,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="N76" s="13"/>
     </row>
@@ -3195,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="N77" s="13"/>
     </row>
@@ -3220,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="N78" s="11"/>
     </row>
@@ -3245,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="N79" s="11"/>
     </row>
@@ -3270,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="N80" s="13"/>
     </row>
@@ -3295,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="N81" s="13"/>
     </row>
@@ -3320,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="N82" s="13"/>
     </row>
@@ -3345,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="N83" s="13"/>
     </row>
@@ -3370,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="N84" s="11"/>
     </row>
@@ -3395,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="N85" s="13"/>
     </row>
@@ -3420,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="N86" s="13"/>
     </row>
@@ -3445,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="N87" s="13"/>
     </row>
@@ -3570,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="N92" s="13"/>
     </row>
@@ -3595,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="N93" s="13"/>
     </row>
@@ -3620,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="N94" s="13"/>
     </row>
@@ -3645,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="N95" s="13"/>
     </row>
@@ -3670,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="N96" s="13"/>
     </row>
@@ -3695,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="N97" s="13"/>
     </row>
@@ -3720,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="N98" s="13"/>
     </row>
@@ -3745,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="N99" s="13"/>
     </row>
@@ -3770,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N100" s="13"/>
     </row>
@@ -3795,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N101" s="13"/>
     </row>
@@ -3820,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="N102" s="13"/>
     </row>
@@ -3845,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="N103" s="13"/>
     </row>
@@ -3870,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="N104" s="13"/>
     </row>
@@ -3895,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="N105" s="13"/>
     </row>
@@ -3916,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3936,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3956,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3976,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -4540,167 +4526,167 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="M32:M80 A43:A81 A4:A15">
-    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:N14 M16:N19">
-    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:N15">
-    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:N20">
-    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:N20">
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:A84 A110:A1048576">
-    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M31">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M31">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M81:M82">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M81:M82">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A89">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A97">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A103">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84:M89">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84:M89">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/level-1/codeforces-phase-1-4/codeforces-phase-1-4.xlsx
+++ b/level-1/codeforces-phase-1-4/codeforces-phase-1-4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A708CC5-FBC1-4A8D-BDC5-00CB6B309D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AEA7B-687A-4F1F-9CD4-CE81D69C10EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codeforces level 1.4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -383,6 +383,45 @@
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/180/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/300/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/349/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/433/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/456/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/471/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/495/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/508/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/558/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/570/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/596/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/602/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/767/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/789/A</t>
   </si>
 </sst>
 </file>
@@ -562,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,12 +657,36 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1201,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1283,27 +1346,27 @@
     <row r="3" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="6">
-        <f>SUM(B4:B801)</f>
+        <f>SUM(B4:B814)</f>
         <v>5</v>
       </c>
       <c r="C3" s="6">
-        <f>SUM(C4:C801)</f>
+        <f>SUM(C4:C814)</f>
         <v>18</v>
       </c>
       <c r="D3" s="6">
-        <f>SUM(D4:D801)</f>
+        <f>SUM(D4:D814)</f>
         <v>21</v>
       </c>
       <c r="E3" s="6">
-        <f>SUM(E4:E801)</f>
+        <f>SUM(E4:E814)</f>
         <v>32</v>
       </c>
       <c r="F3" s="6">
-        <f>SUM(F4:F801)</f>
-        <v>30</v>
+        <f>SUM(F4:F814)</f>
+        <v>43</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" ref="G3:L3" si="0">AVERAGE(G4:G176)</f>
+        <f t="shared" ref="G3:L3" si="0">AVERAGE(G4:G189)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6" t="e">
@@ -1327,11 +1390,11 @@
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>COUNTA(M4:M801)</f>
-        <v>106</v>
+        <f>COUNTA(M4:M814)</f>
+        <v>119</v>
       </c>
       <c r="N3" s="6">
-        <f>COUNTA(N4:N801)</f>
+        <f>COUNTA(N4:N814)</f>
         <v>0</v>
       </c>
     </row>
@@ -3052,7 +3115,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="8">
-        <f t="shared" ref="L72:L109" si="2">SUM(G72:K72)</f>
+        <f t="shared" ref="L72:L122" si="2">SUM(G72:K72)</f>
         <v>0</v>
       </c>
       <c r="M72" s="10" t="s">
@@ -3235,14 +3298,10 @@
       </c>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
-        <v>137</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="12">
+        <v>181</v>
+      </c>
       <c r="F80" s="12">
         <v>1</v>
       </c>
@@ -3251,23 +3310,18 @@
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
-      <c r="L80" s="8">
-        <f t="shared" si="2"/>
+      <c r="L80" s="21">
+        <f>SUM(G80:K80)</f>
         <v>0</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N80" s="13"/>
-    </row>
-    <row r="81" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
-        <v>191</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="12">
+        <v>202</v>
+      </c>
       <c r="F81" s="12">
         <v>1</v>
       </c>
@@ -3276,48 +3330,38 @@
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
-      <c r="L81" s="8">
-        <f t="shared" si="2"/>
+      <c r="L81" s="21">
+        <f>SUM(G81:K81)</f>
         <v>0</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N81" s="13"/>
-    </row>
-    <row r="82" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
-        <v>318</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="12">
+        <v>248</v>
+      </c>
       <c r="F82" s="12">
         <v>1</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="8">
-        <f t="shared" si="2"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="21">
+        <f>SUM(G82:K82)</f>
         <v>0</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="N82" s="13"/>
-    </row>
-    <row r="83" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
-        <v>155</v>
-      </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="12">
+        <v>260</v>
+      </c>
       <c r="F83" s="12">
         <v>1</v>
       </c>
@@ -3326,24 +3370,19 @@
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
-      <c r="L83" s="8">
-        <f t="shared" si="2"/>
+      <c r="L83" s="21">
+        <f>SUM(G83:K83)</f>
         <v>0</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="N83" s="13"/>
-    </row>
-    <row r="84" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
-        <v>199</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="12">
+        <v>269</v>
+      </c>
+      <c r="F84" s="12">
         <v>1</v>
       </c>
       <c r="G84" s="12"/>
@@ -3351,23 +3390,18 @@
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
-      <c r="L84" s="8">
-        <f t="shared" si="2"/>
+      <c r="L84" s="21">
+        <f>SUM(G84:K84)</f>
         <v>0</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N84" s="11"/>
-    </row>
-    <row r="85" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
-        <v>203</v>
-      </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="12">
+        <v>282</v>
+      </c>
       <c r="F85" s="12">
         <v>1</v>
       </c>
@@ -3376,23 +3410,18 @@
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
-      <c r="L85" s="8">
-        <f t="shared" si="2"/>
+      <c r="L85" s="21">
+        <f>SUM(G85:K85)</f>
         <v>0</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N85" s="13"/>
-    </row>
-    <row r="86" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
-        <v>277.5</v>
-      </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="12">
+        <v>288</v>
+      </c>
       <c r="F86" s="12">
         <v>1</v>
       </c>
@@ -3401,23 +3430,18 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
-      <c r="L86" s="8">
-        <f t="shared" si="2"/>
+      <c r="L86" s="21">
+        <f>SUM(G86:K86)</f>
         <v>0</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="N86" s="13"/>
-    </row>
-    <row r="87" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
-        <v>390</v>
-      </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
+        <v>312</v>
+      </c>
       <c r="F87" s="12">
         <v>1</v>
       </c>
@@ -3426,23 +3450,18 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
-      <c r="L87" s="8">
-        <f t="shared" si="2"/>
+      <c r="L87" s="21">
+        <f>SUM(G87:K87)</f>
         <v>0</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N87" s="13"/>
-    </row>
-    <row r="88" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
-        <v>33</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
+        <v>316</v>
+      </c>
       <c r="F88" s="12">
         <v>1</v>
       </c>
@@ -3451,23 +3470,18 @@
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
-      <c r="L88" s="8">
-        <f t="shared" si="2"/>
+      <c r="L88" s="21">
+        <f>SUM(G88:K88)</f>
         <v>0</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N88" s="13"/>
-    </row>
-    <row r="89" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
-        <v>31</v>
-      </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
+        <v>331</v>
+      </c>
       <c r="F89" s="12">
         <v>1</v>
       </c>
@@ -3476,23 +3490,18 @@
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-      <c r="L89" s="8">
-        <f t="shared" si="2"/>
+      <c r="L89" s="21">
+        <f>SUM(G89:K89)</f>
         <v>0</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N89" s="13"/>
-    </row>
-    <row r="90" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
-        <v>27</v>
-      </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12">
+        <v>333</v>
+      </c>
       <c r="F90" s="12">
         <v>1</v>
       </c>
@@ -3501,23 +3510,18 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="8">
-        <f t="shared" si="2"/>
+      <c r="L90" s="21">
+        <f>SUM(G90:K90)</f>
         <v>0</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="N90" s="13"/>
-    </row>
-    <row r="91" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
-        <v>15</v>
-      </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="12">
+        <v>398</v>
+      </c>
       <c r="F91" s="12">
         <v>1</v>
       </c>
@@ -3526,23 +3530,18 @@
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="8">
-        <f t="shared" si="2"/>
+      <c r="L91" s="21">
+        <f>SUM(G91:K91)</f>
         <v>0</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="N91" s="13"/>
-    </row>
-    <row r="92" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
-        <v>79</v>
-      </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="12">
+        <v>407</v>
+      </c>
       <c r="F92" s="12">
         <v>1</v>
       </c>
@@ -3551,18 +3550,17 @@
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="8">
-        <f t="shared" si="2"/>
+      <c r="L92" s="21">
+        <f>SUM(G92:K92)</f>
         <v>0</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N92" s="13"/>
+        <v>133</v>
+      </c>
     </row>
     <row r="93" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
-        <v>417</v>
+        <v>137</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -3571,23 +3569,23 @@
       <c r="F93" s="12">
         <v>1</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
       <c r="L93" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="N93" s="13"/>
     </row>
     <row r="94" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
-        <v>423</v>
+        <v>191</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -3596,23 +3594,23 @@
       <c r="F94" s="12">
         <v>1</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
       <c r="L94" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
-        <v>448</v>
+        <v>318</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -3621,23 +3619,23 @@
       <c r="F95" s="12">
         <v>1</v>
       </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
       <c r="L95" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="N95" s="13"/>
     </row>
     <row r="96" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
-        <v>466</v>
+        <v>155</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -3646,29 +3644,29 @@
       <c r="F96" s="12">
         <v>1</v>
       </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
       <c r="L96" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="N96" s="13"/>
     </row>
     <row r="97" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
-        <v>119</v>
-      </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12">
+        <v>199</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7">
         <v>1</v>
       </c>
       <c r="G97" s="12"/>
@@ -3681,13 +3679,13 @@
         <v>0</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="N97" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="N97" s="11"/>
     </row>
     <row r="98" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -3706,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N98" s="13"/>
     </row>
     <row r="99" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
-        <v>201</v>
+        <v>277.5</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -3731,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="N99" s="13"/>
     </row>
     <row r="100" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -3756,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N100" s="13"/>
     </row>
     <row r="101" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -3771,23 +3769,23 @@
       <c r="F101" s="12">
         <v>1</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
       <c r="L101" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N101" s="13"/>
     </row>
     <row r="102" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -3796,23 +3794,23 @@
       <c r="F102" s="12">
         <v>1</v>
       </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
       <c r="L102" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N102" s="13"/>
     </row>
-    <row r="103" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -3831,13 +3829,13 @@
         <v>0</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N103" s="13"/>
     </row>
-    <row r="104" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -3856,13 +3854,13 @@
         <v>0</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="N104" s="13"/>
     </row>
-    <row r="105" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -3881,34 +3879,43 @@
         <v>0</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N105" s="13"/>
     </row>
-    <row r="106" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
-        <v>184</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="12">
         <v>1</v>
       </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
       <c r="L106" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="N106" s="13"/>
+    </row>
+    <row r="107" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
-        <v>245</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="12">
         <v>1</v>
       </c>
@@ -3922,13 +3929,18 @@
         <v>0</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N107" s="13"/>
+    </row>
+    <row r="108" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
-        <v>28</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
       <c r="F108" s="12">
         <v>1</v>
       </c>
@@ -3942,134 +3954,341 @@
         <v>0</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="N108" s="13"/>
+    </row>
+    <row r="109" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
-        <v>116</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
       <c r="F109" s="12">
         <v>1</v>
       </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
       <c r="L109" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N109" s="13"/>
+    </row>
+    <row r="110" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
+        <v>119</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12">
+        <v>1</v>
+      </c>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L110" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N110" s="13"/>
+    </row>
+    <row r="111" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>281</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12">
+        <v>1</v>
+      </c>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L111" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N111" s="13"/>
+    </row>
+    <row r="112" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7">
+        <v>201</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12">
+        <v>1</v>
+      </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L112" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N112" s="13"/>
+    </row>
+    <row r="113" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
+        <v>50</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12">
+        <v>1</v>
+      </c>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L113" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N113" s="13"/>
+    </row>
+    <row r="114" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7">
+        <v>25</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12">
+        <v>1</v>
+      </c>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N114" s="13"/>
+    </row>
+    <row r="115" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>187</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12">
+        <v>1</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N115" s="13"/>
+    </row>
+    <row r="116" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
+        <v>208</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12">
+        <v>1</v>
+      </c>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L116" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N116" s="13"/>
+    </row>
+    <row r="117" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>41</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12">
+        <v>1</v>
+      </c>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N117" s="13"/>
+    </row>
+    <row r="118" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
+        <v>462</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12">
+        <v>1</v>
+      </c>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L118" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N118" s="13"/>
+    </row>
+    <row r="119" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
+        <v>184</v>
+      </c>
+      <c r="F119" s="12">
+        <v>1</v>
+      </c>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L119" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>245</v>
+      </c>
+      <c r="F120" s="12">
+        <v>1</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>28</v>
+      </c>
+      <c r="F121" s="12">
+        <v>1</v>
+      </c>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L121" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="F122" s="12">
+        <v>1</v>
+      </c>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L122" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
@@ -4077,7 +4296,7 @@
       <c r="K123" s="12"/>
       <c r="L123" s="8"/>
     </row>
-    <row r="124" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
@@ -4085,7 +4304,7 @@
       <c r="K124" s="12"/>
       <c r="L124" s="8"/>
     </row>
-    <row r="125" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -4093,7 +4312,7 @@
       <c r="K125" s="12"/>
       <c r="L125" s="8"/>
     </row>
-    <row r="126" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
@@ -4101,7 +4320,7 @@
       <c r="K126" s="12"/>
       <c r="L126" s="8"/>
     </row>
-    <row r="127" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
@@ -4109,7 +4328,7 @@
       <c r="K127" s="12"/>
       <c r="L127" s="8"/>
     </row>
-    <row r="128" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
@@ -4126,19 +4345,19 @@
       <c r="L129" s="8"/>
     </row>
     <row r="130" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
       <c r="L130" s="8"/>
     </row>
     <row r="131" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
       <c r="L131" s="8"/>
     </row>
     <row r="132" spans="7:12" x14ac:dyDescent="0.3">
@@ -4182,11 +4401,11 @@
       <c r="L136" s="8"/>
     </row>
     <row r="137" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
       <c r="L137" s="8"/>
     </row>
     <row r="138" spans="7:12" x14ac:dyDescent="0.3">
@@ -4206,11 +4425,11 @@
       <c r="L139" s="8"/>
     </row>
     <row r="140" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
       <c r="L140" s="8"/>
     </row>
     <row r="141" spans="7:12" x14ac:dyDescent="0.3">
@@ -4246,11 +4465,11 @@
       <c r="L144" s="8"/>
     </row>
     <row r="145" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
       <c r="L145" s="8"/>
     </row>
     <row r="146" spans="7:12" x14ac:dyDescent="0.3">
@@ -4278,11 +4497,11 @@
       <c r="L148" s="8"/>
     </row>
     <row r="149" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
       <c r="L149" s="8"/>
     </row>
     <row r="150" spans="7:12" x14ac:dyDescent="0.3">
@@ -4310,11 +4529,11 @@
       <c r="L152" s="8"/>
     </row>
     <row r="153" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
       <c r="L153" s="8"/>
     </row>
     <row r="154" spans="7:12" x14ac:dyDescent="0.3">
@@ -4326,11 +4545,11 @@
       <c r="L154" s="8"/>
     </row>
     <row r="155" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="7"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
       <c r="L155" s="8"/>
     </row>
     <row r="156" spans="7:12" x14ac:dyDescent="0.3">
@@ -4342,19 +4561,19 @@
       <c r="L156" s="8"/>
     </row>
     <row r="157" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
       <c r="L157" s="8"/>
     </row>
     <row r="158" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="7:12" x14ac:dyDescent="0.3">
@@ -4382,19 +4601,19 @@
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
       <c r="L162" s="8"/>
     </row>
     <row r="163" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
       <c r="L163" s="8"/>
     </row>
     <row r="164" spans="7:12" x14ac:dyDescent="0.3">
@@ -4430,11 +4649,11 @@
       <c r="L167" s="8"/>
     </row>
     <row r="168" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="12"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
       <c r="L168" s="8"/>
     </row>
     <row r="169" spans="7:12" x14ac:dyDescent="0.3">
@@ -4501,13 +4720,117 @@
       <c r="K176" s="12"/>
       <c r="L176" s="8"/>
     </row>
+    <row r="177" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="8"/>
+    </row>
+    <row r="178" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="8"/>
+    </row>
+    <row r="179" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="8"/>
+    </row>
+    <row r="180" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="8"/>
+    </row>
+    <row r="181" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="8"/>
+    </row>
+    <row r="182" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="8"/>
+    </row>
+    <row r="183" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="8"/>
+    </row>
+    <row r="184" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="8"/>
+    </row>
+    <row r="185" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="8"/>
+    </row>
+    <row r="186" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="8"/>
+    </row>
+    <row r="187" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="8"/>
+    </row>
+    <row r="188" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="8"/>
+    </row>
+    <row r="189" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I303">
-    <sortCondition descending="1" ref="B4:B303"/>
-    <sortCondition descending="1" ref="C4:C303"/>
-    <sortCondition descending="1" ref="D4:D303"/>
-    <sortCondition descending="1" ref="E4:E303"/>
-    <sortCondition descending="1" ref="F4:F303"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I316">
+    <sortCondition descending="1" ref="B4:B316"/>
+    <sortCondition descending="1" ref="C4:C316"/>
+    <sortCondition descending="1" ref="D4:D316"/>
+    <sortCondition descending="1" ref="E4:E316"/>
+    <sortCondition descending="1" ref="F4:F316"/>
   </sortState>
   <mergeCells count="14">
     <mergeCell ref="M1:M2"/>
@@ -4525,217 +4848,232 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="M32:M80 A43:A81 A4:A15">
-    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
+  <conditionalFormatting sqref="M32:M79 A43:A79 A4:A15 A93:A94 M93">
+    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:N14 M16:N19">
+    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:N15">
+    <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:N20">
+    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:N20">
     <cfRule type="cellIs" dxfId="41" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:N15">
+  <conditionalFormatting sqref="M21">
     <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:N20">
+  <conditionalFormatting sqref="M21">
     <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:N20">
+  <conditionalFormatting sqref="M22">
     <cfRule type="cellIs" dxfId="38" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
+  <conditionalFormatting sqref="M22">
     <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
+  <conditionalFormatting sqref="A95:A97 A123:A1048576">
     <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A84 A110:A1048576">
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M31">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M31">
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M81:M82">
+  <conditionalFormatting sqref="M94:M95">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M94:M95">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M96">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M96">
     <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M81:M82">
+  <conditionalFormatting sqref="A98">
     <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
+  <conditionalFormatting sqref="A99">
     <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
+  <conditionalFormatting sqref="A100">
     <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
+  <conditionalFormatting sqref="A101:A102">
     <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
+  <conditionalFormatting sqref="A103">
     <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+  <conditionalFormatting sqref="A104">
     <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A89">
+  <conditionalFormatting sqref="A105">
     <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
+  <conditionalFormatting sqref="A106:A110">
     <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
+  <conditionalFormatting sqref="A111">
     <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="A112">
     <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A97">
+  <conditionalFormatting sqref="A113">
     <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="A114">
     <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
+  <conditionalFormatting sqref="A115">
     <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="A115:A116">
     <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+  <conditionalFormatting sqref="M97:M102">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+  <conditionalFormatting sqref="M97:M102">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A103">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+  <conditionalFormatting sqref="M103:M114">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M84:M89">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="M103:M114">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M84:M89">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+  <conditionalFormatting sqref="M115:M117">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M90:M101">
+  <conditionalFormatting sqref="M115:M117">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M90:M101">
+  <conditionalFormatting sqref="M118">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M102:M104">
+  <conditionalFormatting sqref="M118">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M102:M104">
+  <conditionalFormatting sqref="A117:A122">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M105">
+  <conditionalFormatting sqref="A117:A122">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M105">
+  <conditionalFormatting sqref="M119:M122">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A109">
+  <conditionalFormatting sqref="M119:M122">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A109">
+  <conditionalFormatting sqref="A80:A92">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M109">
+  <conditionalFormatting sqref="M80:M92">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M106:M109">
+  <conditionalFormatting sqref="M80:M92">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
